--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/ID.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/ID.XLSX
@@ -136,10 +136,10 @@
     <t>GLAUCIENE CONCEICAO RIBEIRO</t>
   </si>
   <si>
-    <t>WALDENIR JOSE DAS C. OLIVEIRAS</t>
+    <t>JOYCE DE FIGUEIREDO FERREIRA</t>
   </si>
   <si>
-    <t>JOYCE DE FIGUEIREDO FERREIRA</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -154,10 +154,10 @@
     <t>3310</t>
   </si>
   <si>
-    <t>3709</t>
+    <t>3995</t>
   </si>
   <si>
-    <t>3995</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3527,11 +3527,11 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
+        <v> </v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
+        <v> </v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
@@ -3578,11 +3578,11 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
+        <v> </v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
+        <v> </v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3907,11 +3907,11 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3709</v>
+        <v>3995</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3995</v>
+        <v> </v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
@@ -3934,11 +3934,11 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3709</v>
+        <v>3995</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3995</v>
+        <v> </v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
@@ -3958,11 +3958,11 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3709</v>
+        <v>3995</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3995</v>
+        <v> </v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3709</v>
+        <v>3995</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3995</v>
+        <v> </v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6611,11 +6611,11 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
+        <v> </v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6636,11 +6636,11 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>JOYCE DE FIGUEIREDO FERREIRA</v>
+        <v> </v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6943,11 +6943,11 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3709</v>
+        <v>3995</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3995</v>
+        <v> </v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
@@ -6968,11 +6968,11 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3709</v>
+        <v>3995</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3995</v>
+        <v> </v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
